--- a/BirdShit.xlsx
+++ b/BirdShit.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
-  <si>
-    <t>American White Pelican</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
   <si>
     <t>Habitat</t>
   </si>
@@ -62,9 +56,6 @@
     <t>Least Concern</t>
   </si>
   <si>
-    <t>Brown Pelican</t>
-  </si>
-  <si>
     <t>Ocean</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>Aerial Dive</t>
   </si>
   <si>
-    <t>American Bittern</t>
-  </si>
-  <si>
     <t>Marsh</t>
   </si>
   <si>
@@ -95,75 +83,30 @@
     <t>N</t>
   </si>
   <si>
-    <t>Least Bittern</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Great Blue Heron</t>
-  </si>
-  <si>
-    <t>Great Egret</t>
-  </si>
-  <si>
     <t>Pelicans</t>
   </si>
   <si>
     <t>Bitterns, Herons, Allies</t>
   </si>
   <si>
-    <t>Snowy Egret</t>
-  </si>
-  <si>
-    <t>Little Blue Heron</t>
-  </si>
-  <si>
-    <t>Tricolored Heron</t>
-  </si>
-  <si>
-    <t>Reddish Egret</t>
-  </si>
-  <si>
     <t>Near Threatened</t>
   </si>
   <si>
-    <t>Cattle Egret</t>
-  </si>
-  <si>
     <t>Insects</t>
   </si>
   <si>
     <t>Ground Forager</t>
   </si>
   <si>
-    <t>Green Heron</t>
-  </si>
-  <si>
-    <t>Black-crowned Night-heron</t>
-  </si>
-  <si>
-    <t>Yellow-crowned Night-heron</t>
-  </si>
-  <si>
     <t>Ibises and Spoonbills</t>
   </si>
   <si>
-    <t>White Ibis</t>
-  </si>
-  <si>
     <t>Probing</t>
   </si>
   <si>
-    <t>Glossy Ibis</t>
-  </si>
-  <si>
-    <t>White-faced Ibis</t>
-  </si>
-  <si>
-    <t>Roseate Spoonbill</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -177,19 +120,139 @@
   </si>
   <si>
     <t>All the location information was based off the map of locations  on the web page</t>
+  </si>
+  <si>
+    <t>Comp. Name</t>
+  </si>
+  <si>
+    <t>Comm. Name</t>
+  </si>
+  <si>
+    <t>pelecanus_erythrorhynchos</t>
+  </si>
+  <si>
+    <t>pelecanus_occidentalis</t>
+  </si>
+  <si>
+    <t>botaurus_lentiginosus</t>
+  </si>
+  <si>
+    <t>ixobrychus_exilis</t>
+  </si>
+  <si>
+    <t>ardea_herodias</t>
+  </si>
+  <si>
+    <t>ardea_alba</t>
+  </si>
+  <si>
+    <t>egretta_thula</t>
+  </si>
+  <si>
+    <t>egretta_caerulea</t>
+  </si>
+  <si>
+    <t>egretta_tricolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> egretta_rufescens</t>
+  </si>
+  <si>
+    <t>bubulcus_ibis</t>
+  </si>
+  <si>
+    <t>butorides_virescens</t>
+  </si>
+  <si>
+    <t>nycticorax_nycticorax</t>
+  </si>
+  <si>
+    <t>nyctanassa_violacea</t>
+  </si>
+  <si>
+    <t>eudocimus_albus</t>
+  </si>
+  <si>
+    <t>plegadis_falcinellus</t>
+  </si>
+  <si>
+    <t>plegadis_chihi</t>
+  </si>
+  <si>
+    <t>platalea_ajaja</t>
+  </si>
+  <si>
+    <t>americanWhitePelican</t>
+  </si>
+  <si>
+    <t>brownPelican</t>
+  </si>
+  <si>
+    <t>americanBittern</t>
+  </si>
+  <si>
+    <t>leastBittern</t>
+  </si>
+  <si>
+    <t>greatBlueHeron</t>
+  </si>
+  <si>
+    <t>greatEgret</t>
+  </si>
+  <si>
+    <t>snowyEgret</t>
+  </si>
+  <si>
+    <t>littleBlueHeron</t>
+  </si>
+  <si>
+    <t>tricoloredHeron</t>
+  </si>
+  <si>
+    <t>reddishEgret</t>
+  </si>
+  <si>
+    <t>cattleEgret</t>
+  </si>
+  <si>
+    <t>greenHeron</t>
+  </si>
+  <si>
+    <t>blackCrownedNightHeron</t>
+  </si>
+  <si>
+    <t>yellowCrownedNightHeron</t>
+  </si>
+  <si>
+    <t>whiteIbis</t>
+  </si>
+  <si>
+    <t>glossyIbis</t>
+  </si>
+  <si>
+    <t>whiteFacedIbis</t>
+  </si>
+  <si>
+    <t>roseateSpoonbill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,8 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,606 +560,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+      <c r="J8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="X14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="AA14" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AD14" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="AG14" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="R15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X16" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AJ16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="U17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="X17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" t="s">
         <v>22</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>40</v>
+      <c r="AA19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
       </c>
       <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
-        <v>8</v>
+      <c r="AJ21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BirdShit.xlsx
+++ b/BirdShit.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Matthew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tszyeunglam/GitHub/CPSC_449_Prolog/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="14860" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -563,17 +569,17 @@
   <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -587,7 +593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -598,7 +604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -609,7 +615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -623,7 +629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -640,7 +646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -657,7 +663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -674,7 +680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -682,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -696,12 +702,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -742,7 +748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -783,7 +789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -824,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -865,7 +871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -947,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -988,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -996,28 +1002,28 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X20" t="s">
         <v>18</v>
       </c>
       <c r="AA20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="s">
         <v>17</v>
@@ -1026,10 +1032,10 @@
         <v>17</v>
       </c>
       <c r="AJ20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1043,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U21" t="s">
         <v>18</v>
@@ -1058,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="AA21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="s">
         <v>18</v>
@@ -1070,12 +1076,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1194,24 +1200,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
         <v>18</v>
